--- a/data/Dec 2023 MHDR/Maternal Deaths causes by year_2018-2023.xlsx
+++ b/data/Dec 2023 MHDR/Maternal Deaths causes by year_2018-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9E330A-0250-4889-B06A-615496E46CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750976EF-D915-4643-9C02-69C72027F511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27098FDA-9E6B-4CC7-BBFC-C52454E41C21}"/>
   </bookViews>
@@ -41,31 +41,31 @@
     <t>causes</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obstetric haemorrhage </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non-obstetric complications  (incl cardiac, malaria, HIV/AIDS) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hypertensive disorder </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pregnancy-related infection (inc puerp  sepsis) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pregnancies with abortive outcome (inc abortion, molar, ectopic) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Unknown/undetermined </t>
   </si>
   <si>
-    <t xml:space="preserve">Unanticipated complications of management (inc surgical) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Other obstetric complications </t>
   </si>
   <si>
-    <t xml:space="preserve"> Coincidental causes</t>
+    <t>Non-obstetric complications</t>
+  </si>
+  <si>
+    <t>Obstetric haemorrhage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertensive disorder </t>
+  </si>
+  <si>
+    <t>Pregnancy-related infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pregnancies with abortive outcome</t>
+  </si>
+  <si>
+    <t>Unanticipated complications</t>
+  </si>
+  <si>
+    <t>Coincidental causes</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -515,28 +515,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>

--- a/data/Dec 2023 MHDR/Maternal Deaths causes by year_2018-2023.xlsx
+++ b/data/Dec 2023 MHDR/Maternal Deaths causes by year_2018-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Dec 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750976EF-D915-4643-9C02-69C72027F511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B3BC15-BB35-4FF6-807D-5AB7E9AE5F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27098FDA-9E6B-4CC7-BBFC-C52454E41C21}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>causes</t>
   </si>
@@ -66,6 +66,24 @@
   </si>
   <si>
     <t>Coincidental causes</t>
+  </si>
+  <si>
+    <t>Yr-2018</t>
+  </si>
+  <si>
+    <t>Yr-2019</t>
+  </si>
+  <si>
+    <t>Yr-2020</t>
+  </si>
+  <si>
+    <t>Yr-2021</t>
+  </si>
+  <si>
+    <t>Yr-2022</t>
+  </si>
+  <si>
+    <t>Yr-2023</t>
   </si>
 </sst>
 </file>
@@ -543,8 +561,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="1">
-        <v>2018</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>290</v>
@@ -575,8 +593,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="1">
-        <v>2019</v>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
         <v>297</v>
@@ -607,8 +625,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="1">
-        <v>2020</v>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>249</v>
@@ -639,8 +657,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="1">
-        <v>2021</v>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>265</v>
@@ -671,8 +689,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="1">
-        <v>2022</v>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>252</v>
@@ -703,8 +721,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="1">
-        <v>2023</v>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>231</v>
